--- a/model/LEAP_Input_Variables.xlsx
+++ b/model/LEAP_Input_Variables.xlsx
@@ -375,11 +375,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -411,7 +412,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
